--- a/Wine_Quality/outputs/train_90_test_10/wq_train_90_test_10_depth_accuracy.xlsx
+++ b/Wine_Quality/outputs/train_90_test_10/wq_train_90_test_10_depth_accuracy.xlsx
@@ -458,25 +458,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7892307692307692</v>
+        <v>0.7907692307692308</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7523076923076923</v>
+        <v>0.7569230769230769</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7646153846153846</v>
+        <v>0.7753846153846153</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7861538461538462</v>
+        <v>0.796923076923077</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7923076923076923</v>
+        <v>0.7984615384615384</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7861538461538462</v>
+        <v>0.8046153846153846</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7876923076923077</v>
+        <v>0.796923076923077</v>
       </c>
     </row>
   </sheetData>

--- a/Wine_Quality/outputs/train_90_test_10/wq_train_90_test_10_depth_accuracy.xlsx
+++ b/Wine_Quality/outputs/train_90_test_10/wq_train_90_test_10_depth_accuracy.xlsx
@@ -458,25 +458,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7907692307692308</v>
+        <v>79.08</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7569230769230769</v>
+        <v>75.69</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7753846153846153</v>
+        <v>77.54000000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>0.796923076923077</v>
+        <v>79.69</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7984615384615384</v>
+        <v>79.84999999999999</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8046153846153846</v>
+        <v>80.45999999999999</v>
       </c>
       <c r="H2" t="n">
-        <v>0.796923076923077</v>
+        <v>79.69</v>
       </c>
     </row>
   </sheetData>
